--- a/v2-Implementation/Data/Data-complex-newcost.xlsx
+++ b/v2-Implementation/Data/Data-complex-newcost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="44">
   <si>
     <t>Time Horizon (t)</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Cost of Rescheduling Premium (cc)</t>
+  </si>
+  <si>
+    <t>-5,5</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -785,11 +788,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100941120"/>
-        <c:axId val="290365440"/>
+        <c:axId val="183826624"/>
+        <c:axId val="183827200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100941120"/>
+        <c:axId val="183826624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,12 +802,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290365440"/>
+        <c:crossAx val="183827200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290365440"/>
+        <c:axId val="183827200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,14 +818,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100941120"/>
+        <c:crossAx val="183826624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1329,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,7 +1376,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>20</v>
@@ -2329,9 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/v2-Implementation/Data/Data-complex-newcost.xlsx
+++ b/v2-Implementation/Data/Data-complex-newcost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Indices Data" sheetId="1" r:id="rId1"/>
@@ -341,6 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,7 +349,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -373,7 +373,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -789,11 +789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185923200"/>
-        <c:axId val="185923776"/>
+        <c:axId val="101137728"/>
+        <c:axId val="217817088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185923200"/>
+        <c:axId val="101137728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,12 +803,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185923776"/>
+        <c:crossAx val="217817088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185923776"/>
+        <c:axId val="217817088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185923200"/>
+        <c:crossAx val="101137728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1668,7 +1668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1692,7 +1694,7 @@
       <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2470,7 +2472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2794,23 +2798,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -7050,7 +7054,7 @@
   <dimension ref="A1:R442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7075,34 +7079,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="30" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="31" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">

--- a/v2-Implementation/Data/Data-complex-newcost.xlsx
+++ b/v2-Implementation/Data/Data-complex-newcost.xlsx
@@ -346,7 +346,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,10 +439,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -526,7 +522,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -538,10 +534,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0636175124222387"/>
-          <c:y val="0.0465727098014094"/>
-          <c:w val="0.721154974764271"/>
-          <c:h val="0.871364509929532"/>
+          <c:x val="0.0636068650064506"/>
+          <c:y val="0.0465756935101544"/>
+          <c:w val="0.721138433871535"/>
+          <c:h val="0.871292203216093"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1048,11 +1044,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88788609"/>
-        <c:axId val="2185881"/>
+        <c:axId val="26372260"/>
+        <c:axId val="5002586"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88788609"/>
+        <c:axId val="26372260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,12 +1080,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2185881"/>
+        <c:crossAx val="5002586"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2185881"/>
+        <c:axId val="5002586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,7 +1127,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88788609"/>
+        <c:crossAx val="26372260"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1194,9 +1190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1204,8 +1200,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13467240" y="904680"/>
-        <a:ext cx="9200880" cy="5619240"/>
+        <a:off x="13469760" y="904680"/>
+        <a:ext cx="9208080" cy="5618880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1229,7 +1225,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.28"/>
@@ -1401,7 +1397,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.43"/>
@@ -1675,14 +1671,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1772,7 +1768,7 @@
       <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.28"/>
@@ -2324,10 +2320,10 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
@@ -2370,7 +2366,7 @@
         <v>0.5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0.99</v>
@@ -2636,9 +2632,9 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.57"/>
@@ -3339,8 +3335,6 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
       <c r="C23" s="20" t="n">
         <v>9</v>
       </c>
@@ -3370,8 +3364,6 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
       <c r="C24" s="20" t="n">
         <v>10</v>
       </c>
@@ -3401,12 +3393,6 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
       <c r="G25" s="18" t="n">
         <v>3</v>
       </c>
@@ -3424,12 +3410,6 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
       <c r="G26" s="18" t="n">
         <v>3</v>
       </c>
@@ -3447,12 +3427,6 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
       <c r="G27" s="18" t="n">
         <v>3</v>
       </c>
@@ -3470,12 +3444,6 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
       <c r="G28" s="18" t="n">
         <v>3</v>
       </c>
@@ -3493,12 +3461,6 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
       <c r="G29" s="18" t="n">
         <v>3</v>
       </c>
@@ -3516,12 +3478,6 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
       <c r="G30" s="18" t="n">
         <v>3</v>
       </c>
@@ -3539,12 +3495,6 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
       <c r="G31" s="18" t="n">
         <v>3</v>
       </c>
@@ -3562,12 +3512,6 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
       <c r="G32" s="18" t="n">
         <v>3</v>
       </c>
@@ -3585,12 +3529,6 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
       <c r="G33" s="18" t="n">
         <v>3</v>
       </c>
@@ -3608,12 +3546,6 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
       <c r="G34" s="18" t="n">
         <v>3</v>
       </c>
@@ -3631,12 +3563,6 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
       <c r="G35" s="18" t="n">
         <v>3</v>
       </c>
@@ -3654,12 +3580,6 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
       <c r="G36" s="18" t="n">
         <v>4</v>
       </c>
@@ -3677,12 +3597,6 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
       <c r="G37" s="18" t="n">
         <v>4</v>
       </c>
@@ -3700,12 +3614,6 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
       <c r="G38" s="18" t="n">
         <v>4</v>
       </c>
@@ -3723,12 +3631,6 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
       <c r="G39" s="18" t="n">
         <v>4</v>
       </c>
@@ -3746,12 +3648,6 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
       <c r="G40" s="18" t="n">
         <v>4</v>
       </c>
@@ -3769,12 +3665,6 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
       <c r="G41" s="18" t="n">
         <v>4</v>
       </c>
@@ -3792,12 +3682,6 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
       <c r="G42" s="18" t="n">
         <v>4</v>
       </c>
@@ -3815,12 +3699,6 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
       <c r="G43" s="18" t="n">
         <v>4</v>
       </c>
@@ -3838,12 +3716,6 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
       <c r="G44" s="18" t="n">
         <v>4</v>
       </c>
@@ -3861,12 +3733,6 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
       <c r="G45" s="18" t="n">
         <v>4</v>
       </c>
@@ -3884,12 +3750,6 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
       <c r="G46" s="18" t="n">
         <v>4</v>
       </c>
@@ -6927,13 +6787,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3"/>
@@ -7045,7 +6905,7 @@
       <c r="D3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="24" t="n">
+      <c r="E3" s="23" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -7054,7 +6914,7 @@
       <c r="G3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24" t="n">
+      <c r="H3" s="23" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -7066,7 +6926,7 @@
       <c r="K3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="0" t="n">
@@ -7101,7 +6961,7 @@
       <c r="D4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="23" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -7110,7 +6970,7 @@
       <c r="G4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="24" t="n">
+      <c r="H4" s="23" t="n">
         <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
@@ -7122,7 +6982,7 @@
       <c r="K4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="0" t="n">
@@ -7157,7 +7017,7 @@
       <c r="D5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="23" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -7166,7 +7026,7 @@
       <c r="G5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="24" t="n">
+      <c r="H5" s="23" t="n">
         <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
@@ -7178,7 +7038,7 @@
       <c r="K5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -7213,7 +7073,7 @@
       <c r="D6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="23" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -7222,7 +7082,7 @@
       <c r="G6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="24" t="n">
+      <c r="H6" s="23" t="n">
         <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
@@ -7234,7 +7094,7 @@
       <c r="K6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="0" t="n">
@@ -7269,7 +7129,7 @@
       <c r="D7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="23" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -7278,7 +7138,7 @@
       <c r="G7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="24" t="n">
+      <c r="H7" s="23" t="n">
         <v>5</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -7290,7 +7150,7 @@
       <c r="K7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M7" s="0" t="n">
@@ -7325,7 +7185,7 @@
       <c r="D8" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="23" t="n">
         <v>6</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -7334,7 +7194,7 @@
       <c r="G8" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="24" t="n">
+      <c r="H8" s="23" t="n">
         <v>6</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -7346,7 +7206,7 @@
       <c r="K8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="0" t="n">
@@ -7381,7 +7241,7 @@
       <c r="D9" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="23" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -7390,7 +7250,7 @@
       <c r="G9" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="23" t="n">
         <v>7</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -7402,7 +7262,7 @@
       <c r="K9" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M9" s="0" t="n">
@@ -7437,7 +7297,7 @@
       <c r="D10" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="23" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="0" t="n">
@@ -7446,7 +7306,7 @@
       <c r="G10" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="23" t="n">
         <v>8</v>
       </c>
       <c r="I10" s="0" t="n">
@@ -7458,7 +7318,7 @@
       <c r="K10" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="0" t="n">
@@ -7493,7 +7353,7 @@
       <c r="D11" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="24" t="n">
+      <c r="E11" s="23" t="n">
         <v>9</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -7502,7 +7362,7 @@
       <c r="G11" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="24" t="n">
+      <c r="H11" s="23" t="n">
         <v>9</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -7514,7 +7374,7 @@
       <c r="K11" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M11" s="0" t="n">
@@ -7549,7 +7409,7 @@
       <c r="D12" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="24" t="n">
+      <c r="E12" s="23" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -7558,7 +7418,7 @@
       <c r="G12" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="24" t="n">
+      <c r="H12" s="23" t="n">
         <v>10</v>
       </c>
       <c r="I12" s="0" t="n">
@@ -7570,7 +7430,7 @@
       <c r="K12" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M12" s="0" t="n">
@@ -7605,7 +7465,7 @@
       <c r="D13" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="24" t="n">
+      <c r="E13" s="23" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="0" t="n">
@@ -7614,7 +7474,7 @@
       <c r="G13" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="24" t="n">
+      <c r="H13" s="23" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="0" t="n">
@@ -7626,7 +7486,7 @@
       <c r="K13" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M13" s="0" t="n">
@@ -7661,7 +7521,7 @@
       <c r="D14" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="24" t="n">
+      <c r="E14" s="23" t="n">
         <v>2</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -7670,7 +7530,7 @@
       <c r="G14" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="24" t="n">
+      <c r="H14" s="23" t="n">
         <v>2</v>
       </c>
       <c r="I14" s="0" t="n">
@@ -7682,7 +7542,7 @@
       <c r="K14" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M14" s="0" t="n">
@@ -7717,7 +7577,7 @@
       <c r="D15" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="23" t="n">
         <v>3</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -7726,7 +7586,7 @@
       <c r="G15" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="24" t="n">
+      <c r="H15" s="23" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
@@ -7738,7 +7598,7 @@
       <c r="K15" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M15" s="0" t="n">
@@ -7773,7 +7633,7 @@
       <c r="D16" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="24" t="n">
+      <c r="E16" s="23" t="n">
         <v>4</v>
       </c>
       <c r="F16" s="0" t="n">
@@ -7782,7 +7642,7 @@
       <c r="G16" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="24" t="n">
+      <c r="H16" s="23" t="n">
         <v>4</v>
       </c>
       <c r="I16" s="0" t="n">
@@ -7794,7 +7654,7 @@
       <c r="K16" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M16" s="0" t="n">
@@ -7829,7 +7689,7 @@
       <c r="D17" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="23" t="n">
         <v>5</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -7838,7 +7698,7 @@
       <c r="G17" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="24" t="n">
+      <c r="H17" s="23" t="n">
         <v>5</v>
       </c>
       <c r="I17" s="0" t="n">
@@ -7850,7 +7710,7 @@
       <c r="K17" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M17" s="0" t="n">
@@ -7885,7 +7745,7 @@
       <c r="D18" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="24" t="n">
+      <c r="E18" s="23" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -7894,7 +7754,7 @@
       <c r="G18" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="24" t="n">
+      <c r="H18" s="23" t="n">
         <v>6</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -7906,7 +7766,7 @@
       <c r="K18" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M18" s="0" t="n">
@@ -7941,7 +7801,7 @@
       <c r="D19" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="24" t="n">
+      <c r="E19" s="23" t="n">
         <v>7</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -7950,7 +7810,7 @@
       <c r="G19" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="24" t="n">
+      <c r="H19" s="23" t="n">
         <v>7</v>
       </c>
       <c r="I19" s="0" t="n">
@@ -7962,7 +7822,7 @@
       <c r="K19" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M19" s="0" t="n">
@@ -7997,7 +7857,7 @@
       <c r="D20" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="24" t="n">
+      <c r="E20" s="23" t="n">
         <v>8</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -8006,7 +7866,7 @@
       <c r="G20" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="24" t="n">
+      <c r="H20" s="23" t="n">
         <v>8</v>
       </c>
       <c r="I20" s="0" t="n">
@@ -8018,7 +7878,7 @@
       <c r="K20" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M20" s="0" t="n">
@@ -8053,7 +7913,7 @@
       <c r="D21" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="24" t="n">
+      <c r="E21" s="23" t="n">
         <v>9</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -8062,7 +7922,7 @@
       <c r="G21" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="24" t="n">
+      <c r="H21" s="23" t="n">
         <v>9</v>
       </c>
       <c r="I21" s="0" t="n">
@@ -8074,7 +7934,7 @@
       <c r="K21" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M21" s="0" t="n">
@@ -8109,7 +7969,7 @@
       <c r="D22" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="24" t="n">
+      <c r="E22" s="23" t="n">
         <v>10</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -8118,7 +7978,7 @@
       <c r="G22" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="24" t="n">
+      <c r="H22" s="23" t="n">
         <v>10</v>
       </c>
       <c r="I22" s="0" t="n">
@@ -8130,7 +7990,7 @@
       <c r="K22" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="24" t="s">
+      <c r="L22" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M22" s="0" t="n">
@@ -8153,15 +8013,15 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="E23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="J23" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M23" s="0" t="n">
@@ -8184,15 +8044,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="E24" s="23"/>
+      <c r="H24" s="23"/>
       <c r="J24" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M24" s="0" t="n">
@@ -8215,15 +8075,15 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="E25" s="23"/>
+      <c r="H25" s="23"/>
       <c r="J25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M25" s="0" t="n">
@@ -8246,15 +8106,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="24"/>
-      <c r="H26" s="24"/>
+      <c r="E26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="J26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M26" s="0" t="n">
@@ -8277,15 +8137,15 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="E27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="J27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M27" s="0" t="n">
@@ -8308,15 +8168,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="E28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="J28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="24" t="s">
+      <c r="L28" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M28" s="0" t="n">
@@ -8339,15 +8199,15 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="J29" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M29" s="0" t="n">
@@ -8370,15 +8230,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="E30" s="23"/>
+      <c r="H30" s="23"/>
       <c r="J30" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="24" t="s">
+      <c r="L30" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M30" s="0" t="n">
@@ -8401,15 +8261,15 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="E31" s="23"/>
+      <c r="H31" s="23"/>
       <c r="J31" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="24" t="s">
+      <c r="L31" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M31" s="0" t="n">
@@ -8432,15 +8292,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="E32" s="23"/>
+      <c r="H32" s="23"/>
       <c r="J32" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="L32" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M32" s="0" t="n">
@@ -8463,15 +8323,15 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="E33" s="23"/>
+      <c r="H33" s="23"/>
       <c r="J33" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="24" t="s">
+      <c r="L33" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M33" s="0" t="n">
@@ -8494,15 +8354,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="E34" s="23"/>
+      <c r="H34" s="23"/>
       <c r="J34" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="24" t="s">
+      <c r="L34" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M34" s="0" t="n">
@@ -8525,15 +8385,15 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="E35" s="23"/>
+      <c r="H35" s="23"/>
       <c r="J35" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="L35" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M35" s="0" t="n">
@@ -8556,15 +8416,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="H36" s="23"/>
       <c r="J36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M36" s="0" t="n">
@@ -8587,15 +8447,15 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="E37" s="23"/>
+      <c r="H37" s="23"/>
       <c r="J37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="K37" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M37" s="0" t="n">
@@ -8618,15 +8478,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="E38" s="23"/>
+      <c r="H38" s="23"/>
       <c r="J38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M38" s="0" t="n">
@@ -8649,15 +8509,15 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="E39" s="23"/>
+      <c r="H39" s="23"/>
       <c r="J39" s="0" t="n">
         <v>3</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M39" s="0" t="n">
@@ -8680,15 +8540,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="24"/>
-      <c r="H40" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="H40" s="23"/>
       <c r="J40" s="0" t="n">
         <v>4</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="24" t="s">
+      <c r="L40" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M40" s="0" t="n">
@@ -8711,15 +8571,15 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="E41" s="23"/>
+      <c r="H41" s="23"/>
       <c r="J41" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="24" t="s">
+      <c r="L41" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M41" s="0" t="n">
@@ -8742,15 +8602,15 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="E42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="J42" s="0" t="n">
         <v>6</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L42" s="24" t="s">
+      <c r="L42" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M42" s="0" t="n">
@@ -8773,15 +8633,15 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="J43" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M43" s="0" t="n">
@@ -8804,15 +8664,15 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="J44" s="0" t="n">
         <v>8</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="24" t="s">
+      <c r="L44" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M44" s="0" t="n">
@@ -8835,15 +8695,15 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="E45" s="23"/>
+      <c r="H45" s="23"/>
       <c r="J45" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L45" s="24" t="s">
+      <c r="L45" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M45" s="0" t="n">
@@ -8866,15 +8726,15 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="E46" s="23"/>
+      <c r="H46" s="23"/>
       <c r="J46" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="L46" s="24" t="s">
+      <c r="L46" s="23" t="s">
         <v>7</v>
       </c>
       <c r="M46" s="0" t="n">
@@ -8897,9 +8757,9 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="L47" s="24"/>
+      <c r="E47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="L47" s="23"/>
       <c r="N47" s="0" t="n">
         <v>5</v>
       </c>
@@ -8917,9 +8777,9 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="L48" s="24"/>
+      <c r="E48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="L48" s="23"/>
       <c r="N48" s="0" t="n">
         <v>5</v>
       </c>
@@ -8937,9 +8797,9 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="L49" s="24"/>
+      <c r="E49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="L49" s="23"/>
       <c r="N49" s="0" t="n">
         <v>5</v>
       </c>
@@ -8957,9 +8817,9 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="L50" s="24"/>
+      <c r="E50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="L50" s="23"/>
       <c r="N50" s="0" t="n">
         <v>5</v>
       </c>
@@ -8977,9 +8837,9 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="L51" s="24"/>
+      <c r="E51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="L51" s="23"/>
       <c r="N51" s="0" t="n">
         <v>5</v>
       </c>
@@ -8997,9 +8857,9 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="L52" s="24"/>
+      <c r="E52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="L52" s="23"/>
       <c r="N52" s="0" t="n">
         <v>5</v>
       </c>
@@ -9017,7 +8877,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L53" s="24"/>
+      <c r="L53" s="23"/>
       <c r="N53" s="0" t="n">
         <v>5</v>
       </c>
@@ -9035,7 +8895,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L54" s="24"/>
+      <c r="L54" s="23"/>
       <c r="N54" s="0" t="n">
         <v>5</v>
       </c>
@@ -9053,7 +8913,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L55" s="24"/>
+      <c r="L55" s="23"/>
       <c r="N55" s="0" t="n">
         <v>5</v>
       </c>
@@ -9071,7 +8931,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L56" s="24"/>
+      <c r="L56" s="23"/>
       <c r="N56" s="0" t="n">
         <v>5</v>
       </c>
@@ -9089,7 +8949,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L57" s="24"/>
+      <c r="L57" s="23"/>
       <c r="N57" s="0" t="n">
         <v>5</v>
       </c>
@@ -9107,7 +8967,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L58" s="24"/>
+      <c r="L58" s="23"/>
       <c r="N58" s="0" t="n">
         <v>6</v>
       </c>
@@ -9125,7 +8985,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L59" s="24"/>
+      <c r="L59" s="23"/>
       <c r="N59" s="0" t="n">
         <v>6</v>
       </c>
@@ -9143,7 +9003,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L60" s="24"/>
+      <c r="L60" s="23"/>
       <c r="N60" s="0" t="n">
         <v>6</v>
       </c>
@@ -9161,7 +9021,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L61" s="24"/>
+      <c r="L61" s="23"/>
       <c r="N61" s="0" t="n">
         <v>6</v>
       </c>
@@ -9179,7 +9039,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L62" s="24"/>
+      <c r="L62" s="23"/>
       <c r="N62" s="0" t="n">
         <v>6</v>
       </c>
@@ -9197,7 +9057,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L63" s="24"/>
+      <c r="L63" s="23"/>
       <c r="N63" s="0" t="n">
         <v>6</v>
       </c>
